--- a/ig/anomalies/StructureDefinition-ror-organization-accomodation-family.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-organization-accomodation-family.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-organization-accomodation-family</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization-accomodation-family</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>3.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29</t>
+    <t>2023-04-11T09:40:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR</t>
+    <t>Extension créée dans le cadre du ROR pour préciser si l'établissement peut héberger les familles des personnes prises en charge.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -240,21 +240,21 @@
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
+    <t>*</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
     <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -887,10 +887,10 @@
         <v>74</v>
       </c>
       <c r="AH2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI2" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AI2" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>73</v>
@@ -901,10 +901,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -915,7 +915,7 @@
         <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>73</v>
@@ -990,7 +990,7 @@
         <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>73</v>
@@ -1093,10 +1093,10 @@
         <v>74</v>
       </c>
       <c r="AH4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>92</v>
@@ -1118,10 +1118,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>73</v>
@@ -1195,10 +1195,10 @@
         <v>93</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>73</v>
@@ -1226,7 +1226,7 @@
         <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>73</v>
@@ -1301,10 +1301,10 @@
         <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>103</v>

--- a/ig/anomalies/StructureDefinition-ror-organization-accomodation-family.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-organization-accomodation-family.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:40:11+00:00</t>
+    <t>2023-04-12T13:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-organization-accomodation-family.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-organization-accomodation-family.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T13:10:15+00:00</t>
+    <t>2023-04-12T14:18:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-organization-accomodation-family.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-organization-accomodation-family.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T14:18:07+00:00</t>
+    <t>2023-04-12T14:39:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-organization-accomodation-family.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-organization-accomodation-family.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T14:39:26+00:00</t>
+    <t>2023-04-12T15:25:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
